--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure3.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure3.xlsx
@@ -37,34 +37,34 @@
     <t>gender</t>
   </si>
   <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
     <t>admission_source_id</t>
   </si>
   <si>
-    <t>admission_type_id</t>
+    <t>age</t>
   </si>
   <si>
     <t>diabetesmed</t>
   </si>
   <si>
-    <t>age</t>
+    <t>insulin</t>
   </si>
   <si>
-    <t>insulin</t>
+    <t>race</t>
   </si>
   <si>
     <t>max_glu_serum</t>
   </si>
   <si>
-    <t>race</t>
-  </si>
-  <si>
     <t>diag_1</t>
   </si>
   <si>
-    <t>change</t>
+    <t>a1cresult</t>
   </si>
   <si>
-    <t>a1cresult</t>
+    <t>change</t>
   </si>
   <si>
     <t>discharge_disposition_id</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.303604589835078</v>
+        <v>1.304983734019806</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.297063360643209</v>
+        <v>1.297411814918387</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.243486629257405</v>
+        <v>1.24161542355756</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -583,7 +583,7 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>1.182812642799018</v>
+        <v>1.18448020165611</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -617,7 +617,7 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.169564398948823</v>
+        <v>1.170734506803007</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.164631468279957</v>
+        <v>1.165623788145888</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.164276099326824</v>
+        <v>1.164875345776613</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -668,7 +668,7 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>1.16341521255095</v>
+        <v>1.163531790873676</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1.160432433703188</v>
+        <v>1.163452278274661</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1.132934117176328</v>
+        <v>1.133695928227781</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.118033988749895</v>
+        <v>1.131522947796084</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.098888167234428</v>
+        <v>1.098286584526399</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.979473788937132</v>
+        <v>0.9844405246157418</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9786150778366328</v>
+        <v>0.980735233780415</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9762620666978274</v>
+        <v>0.979513274066085</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9726198678335568</v>
+        <v>0.9764978621708221</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9661410458289623</v>
+        <v>0.9687104999099289</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9659319137624842</v>
+        <v>0.9661732157681876</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9657581360689793</v>
+        <v>0.9659987241007937</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9656232691095524</v>
+        <v>0.9659345959904856</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9652711474229331</v>
+        <v>0.9656923101578808</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9647548764925072</v>
+        <v>0.9654120115094068</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9647044631405749</v>
+        <v>0.9653713277183786</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9628325427109515</v>
+        <v>0.9652328656905431</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9354160193746905</v>
+        <v>0.9332767542947705</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.7148116611777616</v>
+        <v>0.733948997178691</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.6940345670909434</v>
+        <v>0.7148116611777616</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.6752424608630451</v>
+        <v>0.7025577676020007</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.673607828348278</v>
+        <v>0.6752424608630451</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>0.593249197602599</v>
+        <v>0.5936701977224526</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>0.5910210373136018</v>
+        <v>0.5934603709189312</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -1189,13 +1189,13 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.5635773136718069</v>
+        <v>0.5814691205097121</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.5360407206647829</v>
+        <v>0.5338221607773358</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5162980417374264</v>
+        <v>0.522460398843314</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
       <c r="E47">
-        <v>0.5071991184688079</v>
+        <v>0.4920824918292634</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1274,13 +1274,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.4771187236136979</v>
+        <v>0.4880711008692505</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.4712414332508487</v>
+        <v>0.4616103466664636</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.4647674385430035</v>
+        <v>0.4610112019472001</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E51">
-        <v>0.4610112019472001</v>
+        <v>0.4588863945888109</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4592214648091884</v>
+        <v>0.4480620839084176</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,7 +1356,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -1365,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4524578574352511</v>
+        <v>0.4309066795526431</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4516499192933391</v>
+        <v>0.4190581774617468</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,7 +1390,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
@@ -1399,7 +1399,7 @@
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4432445109256249</v>
+        <v>0.416736688794153</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4314477791658988</v>
+        <v>0.4050957468334667</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1427,13 +1427,13 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>0.4190581774617468</v>
+        <v>0.4014533363104836</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.410683538336964</v>
+        <v>0.4009791936316524</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4056058789419332</v>
+        <v>0.3995538202738515</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4027558008467597</v>
+        <v>0.3984095364447978</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E61">
-        <v>0.3963366611204502</v>
+        <v>0.395881882622078</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
       </c>
       <c r="E62">
-        <v>0.3917247450213849</v>
+        <v>0.395211982144036</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E63">
-        <v>0.3886602762441437</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E64">
-        <v>0.3825398852080481</v>
+        <v>0.3789245822659379</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65">
-        <v>0.374059068340419</v>
+        <v>0.3759047057780561</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E66">
-        <v>0.3725397364609582</v>
+        <v>0.3751297915427623</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
       </c>
       <c r="E67">
-        <v>0.3710720668991383</v>
+        <v>0.3641604376590268</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,7 +1611,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -1620,7 +1620,7 @@
         <v>27</v>
       </c>
       <c r="E68">
-        <v>0.3544587784792833</v>
+        <v>0.3631058272528684</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
         <v>28</v>
       </c>
       <c r="E69">
-        <v>0.3530747941197557</v>
+        <v>0.3595960375474172</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3500390349496664</v>
+        <v>0.3544587784792833</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>0.3498285100979472</v>
+        <v>0.348803440061126</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -1688,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="E72">
-        <v>0.319285371913882</v>
+        <v>0.3361451593225675</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E73">
-        <v>0.3162644577575215</v>
+        <v>0.3333497260954629</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,7 +1713,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
@@ -1722,7 +1722,7 @@
         <v>26</v>
       </c>
       <c r="E74">
-        <v>0.3137683302245923</v>
+        <v>0.3216438988798341</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E75">
-        <v>0.311510845435915</v>
+        <v>0.3181185929667592</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E76">
-        <v>0.3107751543820654</v>
+        <v>0.3174237437618373</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>0.3107277331329326</v>
+        <v>0.3164754578407284</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E78">
-        <v>0.3105388819056492</v>
+        <v>0.3162644577575215</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
@@ -1807,7 +1807,7 @@
         <v>27</v>
       </c>
       <c r="E79">
-        <v>0.3065962114220912</v>
+        <v>0.3107751543820654</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E80">
-        <v>0.3064449364202453</v>
+        <v>0.3107277331329326</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1835,13 +1835,13 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
         <v>28</v>
       </c>
       <c r="E81">
-        <v>0.3054915269696653</v>
+        <v>0.310503865849824</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3039990890778399</v>
+        <v>0.3069063745883282</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>0.3010716685304962</v>
+        <v>0.3055074580563123</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>0.2938500424512151</v>
+        <v>0.3024950709910101</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>0.293088209202855</v>
+        <v>0.2938353822981488</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.2916429989493011</v>
+        <v>0.2928822132190094</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1937,13 +1937,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
         <v>28</v>
       </c>
       <c r="E87">
-        <v>0.2891971686519207</v>
+        <v>0.2882465979589726</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E88">
-        <v>0.282696268361244</v>
+        <v>0.2865248038190976</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>0.282591619827659</v>
+        <v>0.2815447985405325</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
       </c>
       <c r="E90">
-        <v>0.2786821772439209</v>
+        <v>0.2806321303288546</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E91">
-        <v>0.2769309893238031</v>
+        <v>0.2794837723736728</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E92">
-        <v>0.2767389160350935</v>
+        <v>0.279109527951614</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
         <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2720880287514483</v>
+        <v>0.2780860147161364</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
         <v>27</v>
       </c>
       <c r="E94">
-        <v>0.2707114174408731</v>
+        <v>0.2778850071883643</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E95">
-        <v>0.2676598420472822</v>
+        <v>0.2727704691559709</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>0.2676254107083479</v>
+        <v>0.2720363855560753</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E97">
-        <v>0.2599805787811015</v>
+        <v>0.2686210996499827</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>0.2568918027211444</v>
+        <v>0.2627162195963521</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
         <v>29</v>
       </c>
       <c r="E99">
-        <v>0.2564704608681768</v>
+        <v>0.2597535720169579</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E100">
-        <v>0.255160700780356</v>
+        <v>0.2577875612109282</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,7 +2172,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
@@ -2181,7 +2181,7 @@
         <v>29</v>
       </c>
       <c r="E101">
-        <v>0.2545625784807747</v>
+        <v>0.2562830715307318</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2543652129591029</v>
+        <v>0.2552328133959579</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
       </c>
       <c r="E103">
-        <v>0.254309073603627</v>
+        <v>0.2550569935286143</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2516092557695894</v>
+        <v>0.2528704646212751</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2243,13 +2243,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E105">
-        <v>0.24875043889429</v>
+        <v>0.2505781040101396</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2465544896652231</v>
+        <v>0.2494611537167051</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2457992197812605</v>
+        <v>0.2486099143152879</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
         <v>28</v>
       </c>
       <c r="E108">
-        <v>0.2435503531488792</v>
+        <v>0.24493201347202</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E109">
-        <v>0.2434289670017134</v>
+        <v>0.2440416926204329</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E110">
-        <v>0.241522945769824</v>
+        <v>0.2427356726786363</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
       </c>
       <c r="E111">
-        <v>0.2392969677572659</v>
+        <v>0.2410911799349755</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
         <v>28</v>
       </c>
       <c r="E112">
-        <v>0.2362428713402999</v>
+        <v>0.238676086565868</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E113">
-        <v>0.2356098150184968</v>
+        <v>0.2380979787440759</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,7 +2393,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
@@ -2402,7 +2402,7 @@
         <v>26</v>
       </c>
       <c r="E114">
-        <v>0.2349351406783007</v>
+        <v>0.2362591120585269</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E115">
-        <v>0.234740285400946</v>
+        <v>0.2358662347373212</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2430,13 +2430,13 @@
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D116" t="s">
         <v>29</v>
       </c>
       <c r="E116">
-        <v>0.2337617509799535</v>
+        <v>0.2322895494637678</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D117" t="s">
         <v>29</v>
       </c>
       <c r="E117">
-        <v>0.2325113838686484</v>
+        <v>0.2322848585969048</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
         <v>27</v>
       </c>
       <c r="E118">
-        <v>0.2311888316118858</v>
+        <v>0.2320973697263514</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2311888316118858</v>
+        <v>0.2320089074719032</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E120">
-        <v>0.2305557903233892</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E121">
-        <v>0.2303494754983591</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
         <v>22</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E122">
-        <v>0.2296235538643801</v>
+        <v>0.2301133107140013</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2292568770248284</v>
+        <v>0.2287431611448673</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E124">
-        <v>0.228534941649241</v>
+        <v>0.2279060655722268</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2583,13 +2583,13 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2271637078503033</v>
+        <v>0.2272260217301043</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2269117588937936</v>
+        <v>0.2268951310503967</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E127">
-        <v>0.2265311510498006</v>
+        <v>0.2258944938531841</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
       </c>
       <c r="E128">
-        <v>0.2259290965878497</v>
+        <v>0.2248175918000679</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2651,13 +2651,13 @@
         <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>0.2258580492451493</v>
+        <v>0.2247125880546295</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2668,13 +2668,13 @@
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2249641336668328</v>
+        <v>0.2246451032048894</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2685,13 +2685,13 @@
         <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E131">
-        <v>0.2249605438245248</v>
+        <v>0.2245322984549303</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,7 +2699,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
         <v>18</v>
@@ -2708,7 +2708,7 @@
         <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2248802213327889</v>
+        <v>0.2239615227782535</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E133">
-        <v>0.2239837416076969</v>
+        <v>0.2236067977499791</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E134">
-        <v>0.2236067977499791</v>
+        <v>0.2224333068213439</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D135" t="s">
         <v>29</v>
       </c>
       <c r="E135">
-        <v>0.2221612448187256</v>
+        <v>0.2215768024708541</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E136">
-        <v>0.2215446390598785</v>
+        <v>0.2209031308600345</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E137">
-        <v>0.2208394437571859</v>
+        <v>0.2207132144880443</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E138">
-        <v>0.2201098186283317</v>
+        <v>0.2204489094380408</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E139">
-        <v>0.2196579265222181</v>
+        <v>0.220313347572288</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E140">
-        <v>0.2194419587251884</v>
+        <v>0.2201015017808387</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>0.2190392272095583</v>
+        <v>0.2196962646595919</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E142">
-        <v>0.2180882854557627</v>
+        <v>0.2192005586371969</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E143">
-        <v>0.2179184578393759</v>
+        <v>0.2190709539605124</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D144" t="s">
         <v>28</v>
       </c>
       <c r="E144">
-        <v>0.2140217707756101</v>
+        <v>0.2188802908029134</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E145">
-        <v>0.2139067175953658</v>
+        <v>0.2182128176934706</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2940,13 +2940,13 @@
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E146">
-        <v>0.2112239696461501</v>
+        <v>0.2180798392721463</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,7 +2954,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
         <v>19</v>
@@ -2963,7 +2963,7 @@
         <v>29</v>
       </c>
       <c r="E147">
-        <v>0.2100624735207441</v>
+        <v>0.2175108991797611</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
         <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.210041793006201</v>
+        <v>0.2170734914317413</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E149">
-        <v>0.2099868762303407</v>
+        <v>0.2145332353435952</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D150" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E150">
-        <v>0.2088451282246171</v>
+        <v>0.2141539079998898</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E151">
-        <v>0.2087116965444979</v>
+        <v>0.2119588497194919</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E152">
-        <v>0.2071953773740025</v>
+        <v>0.2108755379277424</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,7 +3056,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
         <v>18</v>
@@ -3065,7 +3065,7 @@
         <v>29</v>
       </c>
       <c r="E153">
-        <v>0.2066419300897601</v>
+        <v>0.2103202379013293</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
       </c>
       <c r="E154">
-        <v>0.2049545624312926</v>
+        <v>0.2079125667871539</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155">
-        <v>0.2049116039153709</v>
+        <v>0.2068612935585356</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
         <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.2041161029627653</v>
+        <v>0.2063967328579577</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E157">
-        <v>0.2040720501528012</v>
+        <v>0.2061815679233455</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E158">
-        <v>0.2025664517037982</v>
+        <v>0.2059102245432261</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E159">
-        <v>0.2025247949829529</v>
+        <v>0.2057263375907771</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E160">
-        <v>0.2008969790739255</v>
+        <v>0.204715948014244</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E161">
-        <v>0.1997821298665512</v>
+        <v>0.2042602612986827</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
         <v>20</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E162">
-        <v>0.1983081776937619</v>
+        <v>0.2041278834979252</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D163" t="s">
         <v>28</v>
       </c>
       <c r="E163">
-        <v>0.1975603071481855</v>
+        <v>0.2038227333984897</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E164">
-        <v>0.1965884656730751</v>
+        <v>0.2036062067666224</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D165" t="s">
         <v>27</v>
       </c>
       <c r="E165">
-        <v>0.196149817600457</v>
+        <v>0.2035701926304924</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3280,13 +3280,13 @@
         <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E166">
-        <v>0.1949888587859208</v>
+        <v>0.2032084375154879</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E167">
-        <v>0.1917104380239888</v>
+        <v>0.2026003228529248</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D168" t="s">
         <v>28</v>
       </c>
       <c r="E168">
-        <v>0.1916463872865413</v>
+        <v>0.2009148395282017</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
         <v>28</v>
       </c>
       <c r="E169">
-        <v>0.1913983067071511</v>
+        <v>0.1992435723725059</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3348,13 +3348,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E170">
-        <v>0.1912174581040826</v>
+        <v>0.1985781281301118</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E171">
-        <v>0.1908843575140334</v>
+        <v>0.196149817600457</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
       </c>
       <c r="E172">
-        <v>0.1895006434811904</v>
+        <v>0.1952784067532085</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1892003227474224</v>
+        <v>0.1943191999670845</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
       </c>
       <c r="E174">
-        <v>0.1889872788730509</v>
+        <v>0.1939806216989263</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
         <v>28</v>
       </c>
       <c r="E175">
-        <v>0.1885443685918032</v>
+        <v>0.1925917702850187</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E176">
-        <v>0.1878387293996969</v>
+        <v>0.1922391613336113</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E177">
-        <v>0.1875401962974241</v>
+        <v>0.192173947207568</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1872718366081999</v>
+        <v>0.1910111068186197</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E179">
-        <v>0.1870472657469925</v>
+        <v>0.1903180191108305</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D180" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E180">
-        <v>0.1869145599339779</v>
+        <v>0.1887862680706293</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D181" t="s">
         <v>28</v>
       </c>
       <c r="E181">
-        <v>0.1865585335108658</v>
+        <v>0.1883952674743312</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E182">
-        <v>0.1826560484863519</v>
+        <v>0.1869346144817985</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>0.1821391525503299</v>
+        <v>0.186664130440343</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
       </c>
       <c r="E184">
-        <v>0.1781946369521467</v>
+        <v>0.1837652832173627</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
       </c>
       <c r="E185">
-        <v>0.1780331822725404</v>
+        <v>0.1812147402090483</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>0.1774078580143461</v>
+        <v>0.1801047804605228</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D187" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E187">
-        <v>0.17725094049256</v>
+        <v>0.1797311743016289</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D188" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E188">
-        <v>0.1771239430282425</v>
+        <v>0.1793367696084728</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E189">
-        <v>0.1748472758551411</v>
+        <v>0.1785284250091886</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
         <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1746373763643848</v>
+        <v>0.1779025682406042</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E191">
-        <v>0.1744425806680495</v>
+        <v>0.1748428835290169</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
         <v>28</v>
       </c>
       <c r="E192">
-        <v>0.1734920336188088</v>
+        <v>0.1747009331965165</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E193">
-        <v>0.1723298032047047</v>
+        <v>0.1739875175995001</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3756,13 +3756,13 @@
         <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E194">
-        <v>0.1705306231726332</v>
+        <v>0.1739072676383979</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E195">
-        <v>0.1705248958831778</v>
+        <v>0.1719758482937041</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D196" t="s">
         <v>28</v>
       </c>
       <c r="E196">
-        <v>0.1699662847581637</v>
+        <v>0.1717797786302431</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1664914012808821</v>
+        <v>0.1709520783367032</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D198" t="s">
         <v>29</v>
       </c>
       <c r="E198">
-        <v>0.1662113894804685</v>
+        <v>0.1696194473379461</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E199">
-        <v>0.1657173915081955</v>
+        <v>0.1692475375445191</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
         <v>27</v>
       </c>
       <c r="E200">
-        <v>0.1653041503050388</v>
+        <v>0.1662828393459892</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E201">
-        <v>0.1635571692860359</v>
+        <v>0.1660863363727904</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C202" t="s">
         <v>21</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E202">
-        <v>0.1628965334934157</v>
+        <v>0.1651445647689539</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3909,13 +3909,13 @@
         <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0.1628655854961142</v>
+        <v>0.1646769392525797</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,7 +3923,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>24</v>
@@ -3932,7 +3932,7 @@
         <v>29</v>
       </c>
       <c r="E204">
-        <v>0.1625819234383077</v>
+        <v>0.1645278088644698</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E205">
-        <v>0.1605560598807404</v>
+        <v>0.1636177725558974</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E206">
-        <v>0.1602719658330266</v>
+        <v>0.1628202825356669</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D207" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1573885902209561</v>
+        <v>0.1601099107798153</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E208">
-        <v>0.1573233365070681</v>
+        <v>0.1598568143452136</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D209" t="s">
         <v>28</v>
       </c>
       <c r="E209">
-        <v>0.1557993190082999</v>
+        <v>0.1587681135344584</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E210">
-        <v>0.155759983326603</v>
+        <v>0.1563990217292402</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,7 +4042,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>19</v>
@@ -4051,7 +4051,7 @@
         <v>28</v>
       </c>
       <c r="E211">
-        <v>0.1544820422917796</v>
+        <v>0.1560036905939621</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E212">
-        <v>0.1529650759430613</v>
+        <v>0.1558874669422876</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D213" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E213">
-        <v>0.1507633287186044</v>
+        <v>0.1555586579284484</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E214">
-        <v>0.1504723518310982</v>
+        <v>0.1534391046534775</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E215">
-        <v>0.1497142509397265</v>
+        <v>0.1528667766722159</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E216">
-        <v>0.1496405066078835</v>
+        <v>0.1513159066044401</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E217">
-        <v>0.149589954704195</v>
+        <v>0.151306794158732</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D218" t="s">
         <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1494472916346045</v>
+        <v>0.1501618434185749</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D219" t="s">
         <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1494213558561397</v>
+        <v>0.1499355687519688</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E220">
-        <v>0.1486262791202183</v>
+        <v>0.1498557497046848</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D221" t="s">
         <v>28</v>
       </c>
       <c r="E221">
-        <v>0.147301046664021</v>
+        <v>0.1490399783107713</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E222">
-        <v>0.1472485397904147</v>
+        <v>0.1482377622508458</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D223" t="s">
         <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1470863232386492</v>
+        <v>0.1477652322746545</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E224">
-        <v>0.1464485030779963</v>
+        <v>0.1476898481490461</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E225">
-        <v>0.1454531666220069</v>
+        <v>0.1475864304715698</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D226" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E226">
-        <v>0.1446897139954141</v>
+        <v>0.1475569225597618</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D227" t="s">
         <v>28</v>
       </c>
       <c r="E227">
-        <v>0.1434354414623854</v>
+        <v>0.1463016249799894</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E228">
-        <v>0.1432364367562947</v>
+        <v>0.1457491767154791</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E229">
-        <v>0.1428338869528963</v>
+        <v>0.1454270894186726</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E230">
-        <v>0.1426767193106212</v>
+        <v>0.1453470043018258</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E231">
-        <v>0.1417377440972451</v>
+        <v>0.1443700528273447</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D232" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E232">
-        <v>0.1408678721852353</v>
+        <v>0.14347382521415</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C233" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D233" t="s">
         <v>28</v>
       </c>
       <c r="E233">
-        <v>0.1406451041276988</v>
+        <v>0.1432329610555512</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D234" t="s">
         <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1397173638449466</v>
+        <v>0.1424794823157195</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D235" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1395530197353268</v>
+        <v>0.1416249542861848</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C236" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E236">
-        <v>0.1383419076584702</v>
+        <v>0.1415349759203367</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1375420268175505</v>
+        <v>0.1414243822068911</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
         <v>23</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E238">
-        <v>0.1374854735560819</v>
+        <v>0.1414104024078185</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D239" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E239">
-        <v>0.1371781833749659</v>
+        <v>0.1413875783401046</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C240" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E240">
-        <v>0.1370845505575501</v>
+        <v>0.1409236823439902</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D241" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1366206027322273</v>
+        <v>0.1404545335542756</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D242" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E242">
-        <v>0.136223760316413</v>
+        <v>0.1402723280890984</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D243" t="s">
         <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1355497959807986</v>
+        <v>0.1395391410468031</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D244" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1352688063005332</v>
+        <v>0.1390012885319618</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4623,13 +4623,13 @@
         <v>17</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D245" t="s">
         <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1351506670615559</v>
+        <v>0.1374285205507277</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E246">
-        <v>0.1345700973231871</v>
+        <v>0.137410325236003</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C247" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
       </c>
       <c r="E247">
-        <v>0.1343466741783234</v>
+        <v>0.1366620821155107</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4674,13 +4674,13 @@
         <v>17</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E248">
-        <v>0.1341706260029196</v>
+        <v>0.1366589535489604</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D249" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1335879600811476</v>
+        <v>0.1365628926342633</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D250" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E250">
-        <v>0.1333632640955313</v>
+        <v>0.135598068326589</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C251" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D251" t="s">
         <v>29</v>
       </c>
       <c r="E251">
-        <v>0.1331144764810801</v>
+        <v>0.1342195954909583</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C252" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D252" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E252">
-        <v>0.1329403530576539</v>
+        <v>0.1340576205825645</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4759,13 +4759,13 @@
         <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D253" t="s">
         <v>26</v>
       </c>
       <c r="E253">
-        <v>0.1315826513017222</v>
+        <v>0.1327263898203029</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D254" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E254">
-        <v>0.1315674926333379</v>
+        <v>0.1326506077303711</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4793,13 +4793,13 @@
         <v>6</v>
       </c>
       <c r="C255" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
       </c>
       <c r="E255">
-        <v>0.1314291311934035</v>
+        <v>0.1320272495515496</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D256" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E256">
-        <v>0.1312334645668636</v>
+        <v>0.1318694753847023</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>23</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E257">
-        <v>0.1311912744221837</v>
+        <v>0.131842608844427</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4844,13 +4844,13 @@
         <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D258" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E258">
-        <v>0.1311639081066238</v>
+        <v>0.1309640115261983</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4861,13 +4861,13 @@
         <v>17</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D259" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E259">
-        <v>0.1309817518296889</v>
+        <v>0.1309625955532684</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C260" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D260" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E260">
-        <v>0.1296018121868378</v>
+        <v>0.1304287747854932</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C261" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D261" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E261">
-        <v>0.1295741105316566</v>
+        <v>0.1297553422710707</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C262" t="s">
         <v>22</v>
       </c>
       <c r="D262" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E262">
-        <v>0.129400277166553</v>
+        <v>0.1296987313594435</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D263" t="s">
         <v>29</v>
       </c>
       <c r="E263">
-        <v>0.1290359277043568</v>
+        <v>0.1295988588581649</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D264" t="s">
         <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1278303369833959</v>
+        <v>0.1292236015320839</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4963,13 +4963,13 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D265" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1271031052320852</v>
+        <v>0.1286380413382562</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1270308951372693</v>
+        <v>0.1279941471676711</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E267">
-        <v>0.1258503019008119</v>
+        <v>0.1277632874500542</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5014,13 +5014,13 @@
         <v>6</v>
       </c>
       <c r="C268" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D268" t="s">
         <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1255466728930044</v>
+        <v>0.1277398807332675</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E269">
-        <v>0.125199361299548</v>
+        <v>0.1276655262072796</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D270" t="s">
         <v>29</v>
       </c>
       <c r="E270">
-        <v>0.1249754152976701</v>
+        <v>0.1271669287445555</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5065,13 +5065,13 @@
         <v>6</v>
       </c>
       <c r="C271" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D271" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E271">
-        <v>0.1248888224099443</v>
+        <v>0.1264387559147183</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D272" t="s">
         <v>29</v>
       </c>
       <c r="E272">
-        <v>0.1246208115449805</v>
+        <v>0.1263004331624392</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C273" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D273" t="s">
         <v>29</v>
       </c>
       <c r="E273">
-        <v>0.1242492619437369</v>
+        <v>0.1246045386878512</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C274" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
         <v>29</v>
       </c>
       <c r="E274">
-        <v>0.1229349418346691</v>
+        <v>0.1242720926032182</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C275" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D275" t="s">
         <v>26</v>
       </c>
       <c r="E275">
-        <v>0.1229181867304524</v>
+        <v>0.123923064286379</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D276" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E276">
-        <v>0.1226760010559827</v>
+        <v>0.1239000986078516</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D277" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E277">
-        <v>0.1224662937572843</v>
+        <v>0.1237105264218194</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D278" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E278">
-        <v>0.1223711984413717</v>
+        <v>0.1230983666109613</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D279" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E279">
-        <v>0.1204050560982605</v>
+        <v>0.1225462150739188</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C280" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D280" t="s">
         <v>26</v>
       </c>
       <c r="E280">
-        <v>0.1199520124725963</v>
+        <v>0.1225322896037662</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D281" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E281">
-        <v>0.1197785610328748</v>
+        <v>0.1225013544175646</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C282" t="s">
         <v>24</v>
       </c>
       <c r="D282" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E282">
-        <v>0.1197224173092349</v>
+        <v>0.1222198172902553</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C283" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D283" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E283">
-        <v>0.1195720666109278</v>
+        <v>0.1210560706742919</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D284" t="s">
         <v>26</v>
       </c>
       <c r="E284">
-        <v>0.1195451946717162</v>
+        <v>0.1208190683439406</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D285" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E285">
-        <v>0.1171912473816115</v>
+        <v>0.1204983061762959</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C286" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D286" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1165613900007717</v>
+        <v>0.1203356746857277</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E287">
-        <v>0.1157087370588854</v>
+        <v>0.120287856143126</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C288" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D288" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E288">
-        <v>0.1142808644275926</v>
+        <v>0.1198901186623839</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D289" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1139605764596382</v>
+        <v>0.1192175583807981</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C290" t="s">
         <v>22</v>
       </c>
       <c r="D290" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E290">
-        <v>0.1139136003017384</v>
+        <v>0.1190491899285911</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C291" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D291" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E291">
-        <v>0.1137882859203951</v>
+        <v>0.1190306715116198</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C292" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D292" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E292">
-        <v>0.1136898664541954</v>
+        <v>0.1166298666691958</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C293" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D293" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E293">
-        <v>0.1128925021874457</v>
+        <v>0.1164777686248026</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C294" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D294" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E294">
-        <v>0.1117475390669186</v>
+        <v>0.1164223527915926</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5473,13 +5473,13 @@
         <v>6</v>
       </c>
       <c r="C295" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D295" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E295">
-        <v>0.1117475390669186</v>
+        <v>0.1163032968089869</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D296" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E296">
-        <v>0.1117475390669186</v>
+        <v>0.1156650334336807</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D297" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E297">
-        <v>0.1109440799852612</v>
+        <v>0.1154385046640948</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C298" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D298" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E298">
-        <v>0.1109272516498187</v>
+        <v>0.1147482681043549</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E299">
-        <v>0.1108428881999664</v>
+        <v>0.1144298309653002</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D300" t="s">
         <v>26</v>
       </c>
       <c r="E300">
-        <v>0.1104408601354472</v>
+        <v>0.1142109087857977</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C301" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D301" t="s">
         <v>26</v>
       </c>
       <c r="E301">
-        <v>0.1103158831867175</v>
+        <v>0.1120704423616</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,7 +5589,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C302" t="s">
         <v>22</v>
@@ -5598,7 +5598,7 @@
         <v>28</v>
       </c>
       <c r="E302">
-        <v>0.1098818795459932</v>
+        <v>0.1120227318301057</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D303" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E303">
-        <v>0.1097378034883532</v>
+        <v>0.1117866936678616</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C304" t="s">
         <v>22</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E304">
-        <v>0.1095100383603168</v>
+        <v>0.1115008180796557</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C305" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E305">
-        <v>0.1089544611556618</v>
+        <v>0.1115008180796557</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D306" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E306">
-        <v>0.108780536603426</v>
+        <v>0.1112061997986989</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C307" t="s">
         <v>22</v>
       </c>
       <c r="D307" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E307">
-        <v>0.1085967505087127</v>
+        <v>0.11087979819636</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C308" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D308" t="s">
         <v>26</v>
       </c>
       <c r="E308">
-        <v>0.1085543518209494</v>
+        <v>0.1105779418097805</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C309" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E309">
-        <v>0.1078160567413481</v>
+        <v>0.1104889311805712</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C310" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D310" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E310">
-        <v>0.1073558214830775</v>
+        <v>0.109883268986553</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C311" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D311" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E311">
-        <v>0.1071658689656738</v>
+        <v>0.1092955074739115</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C312" t="s">
         <v>23</v>
       </c>
       <c r="D312" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E312">
-        <v>0.1061085943117704</v>
+        <v>0.1092770697271385</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D313" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E313">
-        <v>0.1051912477831265</v>
+        <v>0.1091009130502512</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D314" t="s">
         <v>26</v>
       </c>
       <c r="E314">
-        <v>0.1048842996378479</v>
+        <v>0.1061365155254267</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C315" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D315" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E315">
-        <v>0.1046598207199297</v>
+        <v>0.1057834891545232</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C316" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D316" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E316">
-        <v>0.1040033533951049</v>
+        <v>0.1046526973968953</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C317" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D317" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E317">
-        <v>0.1035000935798338</v>
+        <v>0.1045003575739361</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C318" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D318" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E318">
-        <v>0.1030521296838767</v>
+        <v>0.1044216375348008</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C319" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D319" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E319">
-        <v>0.1025552330480419</v>
+        <v>0.1039955828678519</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C320" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D320" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E320">
-        <v>0.1023830873023369</v>
+        <v>0.1037554537224223</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D321" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E321">
-        <v>0.1023708267700282</v>
+        <v>0.1036395085715496</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C322" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E322">
-        <v>0.101637752221098</v>
+        <v>0.1035527983467096</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5949,13 +5949,13 @@
         <v>17</v>
       </c>
       <c r="C323" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D323" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E323">
-        <v>0.1000442806730174</v>
+        <v>0.1033250256000432</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C324" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D324" t="s">
         <v>26</v>
       </c>
       <c r="E324">
-        <v>0.09972602322446121</v>
+        <v>0.102461738042559</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C325" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D325" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E325">
-        <v>0.09965153420359583</v>
+        <v>0.1013461182255354</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C326" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D326" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E326">
-        <v>0.09912061507251296</v>
+        <v>0.1000741706517089</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C327" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D327" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E327">
-        <v>0.09798345042135415</v>
+        <v>0.09897433186107901</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D328" t="s">
         <v>26</v>
       </c>
       <c r="E328">
-        <v>0.09796447033609562</v>
+        <v>0.09764632308060342</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C329" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D329" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E329">
-        <v>0.09746971338164911</v>
+        <v>0.09686709349130503</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D330" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E330">
-        <v>0.09716545524447223</v>
+        <v>0.09639361146251603</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C331" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D331" t="s">
         <v>28</v>
       </c>
       <c r="E331">
-        <v>0.09649107014091803</v>
+        <v>0.09508835575711783</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C332" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D332" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E332">
-        <v>0.09432832979108505</v>
+        <v>0.09460488072380938</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6119,13 +6119,13 @@
         <v>17</v>
       </c>
       <c r="C333" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D333" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09432832979108505</v>
+        <v>0.09294091583787566</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D334" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E334">
-        <v>0.09432832979108505</v>
+        <v>0.09250147777402616</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D335" t="s">
         <v>26</v>
       </c>
       <c r="E335">
-        <v>0.09412902870595301</v>
+        <v>0.09036211337906673</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C336" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D336" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E336">
-        <v>0.09365677992053582</v>
+        <v>0.08885219935161767</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,7 +6184,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C337" t="s">
         <v>22</v>
@@ -6193,7 +6193,7 @@
         <v>26</v>
       </c>
       <c r="E337">
-        <v>0.09319334100754757</v>
+        <v>0.08779347732945318</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6204,13 +6204,13 @@
         <v>13</v>
       </c>
       <c r="C338" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D338" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E338">
-        <v>0.09310897655632298</v>
+        <v>0.08674990065886372</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,7 +6218,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C339" t="s">
         <v>25</v>
@@ -6227,7 +6227,7 @@
         <v>28</v>
       </c>
       <c r="E339">
-        <v>0.09308451409097428</v>
+        <v>0.08574947286240485</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C340" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D340" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E340">
-        <v>0.09131558813317456</v>
+        <v>0.08263208009128473</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C341" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D341" t="s">
         <v>26</v>
       </c>
       <c r="E341">
-        <v>0.08945052575057502</v>
+        <v>0.08252081793266741</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6278,7 +6278,7 @@
         <v>26</v>
       </c>
       <c r="E342">
-        <v>0.08940947666500199</v>
+        <v>0.08136441625371103</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6289,13 +6289,13 @@
         <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D343" t="s">
         <v>28</v>
       </c>
       <c r="E343">
-        <v>0.0890230010140574</v>
+        <v>0.08000417419485893</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C344" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D344" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E344">
-        <v>0.08888915985153256</v>
+        <v>0.07922424357597657</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,7 +6320,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C345" t="s">
         <v>21</v>
@@ -6329,7 +6329,7 @@
         <v>26</v>
       </c>
       <c r="E345">
-        <v>0.08861616735949877</v>
+        <v>0.07711459543011399</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C346" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D346" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E346">
-        <v>0.08703987498368604</v>
+        <v>0.07634052826711463</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C347" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D347" t="s">
         <v>29</v>
       </c>
       <c r="E347">
-        <v>0.08634472335587931</v>
+        <v>0.07633601982781101</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D348" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E348">
-        <v>0.0844621918971064</v>
+        <v>0.0754478700690053</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C349" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D349" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E349">
-        <v>0.08442469116676994</v>
+        <v>0.07499615097980473</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6411,10 +6411,10 @@
         <v>24</v>
       </c>
       <c r="D350" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E350">
-        <v>0.08383273561419261</v>
+        <v>0.07478587743523607</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D351" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E351">
-        <v>0.0830053005687845</v>
+        <v>0.0745854205696458</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C352" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D352" t="s">
         <v>29</v>
       </c>
       <c r="E352">
-        <v>0.0829652824877166</v>
+        <v>0.07449034135770298</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C353" t="s">
         <v>23</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.07877721985773786</v>
+        <v>0.07414233391546284</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C354" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D354" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E354">
-        <v>0.07654164658381364</v>
+        <v>0.07379142586034929</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,7 +6490,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C355" t="s">
         <v>19</v>
@@ -6499,7 +6499,7 @@
         <v>26</v>
       </c>
       <c r="E355">
-        <v>0.07606991458118567</v>
+        <v>0.07328328737762153</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C356" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D356" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E356">
-        <v>0.07554873117834715</v>
+        <v>0.07309592182625706</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C357" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D357" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E357">
-        <v>0.07445234052713889</v>
+        <v>0.07288498396932992</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C358" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D358" t="s">
         <v>26</v>
       </c>
       <c r="E358">
-        <v>0.07393657511928946</v>
+        <v>0.07108827978031965</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C359" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D359" t="s">
         <v>29</v>
       </c>
       <c r="E359">
-        <v>0.07287623374355749</v>
+        <v>0.07102738459461612</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C360" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D360" t="s">
         <v>26</v>
       </c>
       <c r="E360">
-        <v>0.07171830014686371</v>
+        <v>0.0710083733296412</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6595,13 +6595,13 @@
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D361" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E361">
-        <v>0.07068263140774168</v>
+        <v>0.06980847126446428</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6612,13 +6612,13 @@
         <v>13</v>
       </c>
       <c r="C362" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D362" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E362">
-        <v>0.07059124202625265</v>
+        <v>0.06972222128503831</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C363" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D363" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E363">
-        <v>0.06896249266912574</v>
+        <v>0.06962162327755034</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C364" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D364" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E364">
-        <v>0.06827000877903164</v>
+        <v>0.06950289908644212</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E365">
-        <v>0.06816238803575618</v>
+        <v>0.0683607804067965</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C366" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D366" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E366">
-        <v>0.06739808635190121</v>
+        <v>0.0661327038290815</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C367" t="s">
         <v>21</v>
       </c>
       <c r="D367" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E367">
-        <v>0.06672907641564395</v>
+        <v>0.06493160548890967</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C368" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D368" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06469246621096689</v>
+        <v>0.05877024547648096</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C369" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D369" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E369">
-        <v>0.0645131264532782</v>
+        <v>0.05848096238749381</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C370" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D370" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E370">
-        <v>0.06264413644885478</v>
+        <v>0.05687544691433869</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C371" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D371" t="s">
         <v>26</v>
       </c>
       <c r="E371">
-        <v>0.05692343375524056</v>
+        <v>0.05150988199212886</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C372" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D372" t="s">
         <v>26</v>
       </c>
       <c r="E372">
-        <v>0.05062664350024184</v>
+        <v>0.05119582366268156</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C373" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D373" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E373">
-        <v>0.04343653612749944</v>
+        <v>0.05086513568189761</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,7 +6813,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C374" t="s">
         <v>23</v>
@@ -6822,7 +6822,7 @@
         <v>26</v>
       </c>
       <c r="E374">
-        <v>0.04253285925617534</v>
+        <v>0.05081601021558856</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C375" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D375" t="s">
         <v>26</v>
       </c>
       <c r="E375">
-        <v>0.0378610958073626</v>
+        <v>0.04209718062932172</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C376" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D376" t="s">
         <v>26</v>
       </c>
       <c r="E376">
-        <v>0.03683164064835395</v>
+        <v>0.02995634282614294</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C377" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D377" t="s">
         <v>28</v>
       </c>
       <c r="E377">
-        <v>0.03528411165726065</v>
+        <v>0.02954048349022466</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C378" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378">
-        <v>0.02649733940379381</v>
+        <v>0.02759297523610234</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C379" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D379" t="s">
         <v>26</v>
       </c>
       <c r="E379">
-        <v>0.02644889086217437</v>
+        <v>0.02657219104717631</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C380" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
       </c>
       <c r="E380">
-        <v>0.02567987955633896</v>
+        <v>0.02536752612792983</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C381" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D381" t="s">
         <v>26</v>
       </c>
       <c r="E381">
-        <v>0.02425228717531781</v>
+        <v>0.01086055838455235</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6955,10 +6955,10 @@
         <v>23</v>
       </c>
       <c r="D382" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E382">
-        <v>0.02207790244611287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6969,7 +6969,7 @@
         <v>6</v>
       </c>
       <c r="C383" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D383" t="s">
         <v>27</v>
@@ -7000,10 +7000,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C385" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D385" t="s">
         <v>27</v>
@@ -7017,7 +7017,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C386" t="s">
         <v>23</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C387" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,7 +7051,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C388" t="s">
         <v>25</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C389" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C390" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C391" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C392" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C394" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,10 +7170,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C395" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D395" t="s">
         <v>27</v>
@@ -7187,7 +7187,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C396" t="s">
         <v>21</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C397" t="s">
         <v>25</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C398" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,7 +7238,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C399" t="s">
         <v>21</v>
@@ -7258,7 +7258,7 @@
         <v>14</v>
       </c>
       <c r="C400" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7275,7 +7275,7 @@
         <v>14</v>
       </c>
       <c r="C401" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7306,7 +7306,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C403" t="s">
         <v>25</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C405" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,7 +7357,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C406" t="s">
         <v>21</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C407" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C408" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C409" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C410" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,10 +7442,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C411" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D411" t="s">
         <v>27</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C412" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C413" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C414" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C415" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C416" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
@@ -7544,7 +7544,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C417" t="s">
         <v>23</v>
